--- a/Messungen/Fahrzeuge/AmplitudeTest.xlsx
+++ b/Messungen/Fahrzeuge/AmplitudeTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\Fahrzeuge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1D072-D033-48AF-B2CB-45AE93E1B589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F8324B-DC4F-4A03-B152-69E92EA05B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{E2736EEE-D214-48CD-A3C2-DAE0CDD1B064}"/>
+    <workbookView xWindow="57480" yWindow="14280" windowWidth="29040" windowHeight="15840" xr2:uid="{E2736EEE-D214-48CD-A3C2-DAE0CDD1B064}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>r1 [m]</t>
   </si>
@@ -96,13 +96,22 @@
   </si>
   <si>
     <t>Ausgabe</t>
+  </si>
+  <si>
+    <t>Vorsicht! Radii müssten noch trianguliert werden</t>
+  </si>
+  <si>
+    <t>v_avg ~ r1 ⇒ 10*r1 ⇒ 10*v_avg</t>
+  </si>
+  <si>
+    <t>v_avg [km/h]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +164,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +226,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -389,8 +425,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -400,8 +516,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="8"/>
@@ -414,25 +531,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="40 % - Akzent5" xfId="7" builtinId="47"/>
     <cellStyle name="60 % - Akzent5" xfId="8" builtinId="48"/>
     <cellStyle name="Akzent5" xfId="6" builtinId="45"/>
@@ -440,6 +582,7 @@
     <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
     <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
     <cellStyle name="Notiz" xfId="5" builtinId="10"/>
+    <cellStyle name="Schlecht" xfId="9" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
   </cellStyles>
@@ -753,42 +896,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C4368C-E09C-4DF4-97FC-AC13266427FB}">
-  <dimension ref="C6:W30"/>
+  <dimension ref="C6:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="25" max="25" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="3:23" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
+    <row r="6" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="19" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="3:23" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" spans="3:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
@@ -813,8 +959,8 @@
       <c r="L7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="10" t="s">
         <v>5</v>
       </c>
@@ -838,16 +984,19 @@
       <c r="W7" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="3:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C9" s="22">
+      <c r="X7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -869,8 +1018,8 @@
       <c r="L9" s="4">
         <v>1.5833333333333299</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="3">
         <f>$E$9*POWER(10, ABS($G9-H9)/20)</f>
         <v>72.560155869368799</v>
@@ -880,7 +1029,7 @@
         <v>149.15143150925849</v>
       </c>
       <c r="Q9" s="3">
-        <f>$E$9*POWER(10, ABS($G9-J9)/20)</f>
+        <f t="shared" ref="Q9:Q23" si="0">$E$9*POWER(10, ABS($G9-J9)/20)</f>
         <v>225.74270714914778</v>
       </c>
       <c r="S9" s="3">
@@ -892,20 +1041,24 @@
         <v>48.373437246246219</v>
       </c>
       <c r="U9" s="3">
-        <f>(Q9-P9)/$L9</f>
+        <f t="shared" ref="U9:U23" si="1">(Q9-P9)/$L9</f>
         <v>48.37343724624597</v>
       </c>
       <c r="W9" s="5">
         <f>AVERAGE(S9:U9)</f>
         <v>46.998464662978584</v>
       </c>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C10" s="22">
+      <c r="X9" s="5">
+        <f>W9*3.6</f>
+        <v>169.19447278672291</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C10" s="19">
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E22" si="0">E9</f>
+        <f t="shared" ref="E10:E22" si="2">E9</f>
         <v>2.5</v>
       </c>
       <c r="G10" s="1">
@@ -923,43 +1076,47 @@
       <c r="L10" s="4">
         <v>0.41666666666666602</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="3">
-        <f>$E$9*POWER(10, ABS($G10-H10)/20)</f>
+        <f t="shared" ref="O9:O23" si="3">$E$9*POWER(10, ABS($G10-H10)/20)</f>
         <v>12.368926343173527</v>
       </c>
       <c r="P10" s="3">
-        <f>$E$9*POWER(10, ABS($G10-I10)/20)</f>
+        <f t="shared" ref="P9:P23" si="4">$E$9*POWER(10, ABS($G10-I10)/20)</f>
         <v>27.830084272140279</v>
       </c>
       <c r="Q10" s="3">
-        <f>$E$9*POWER(10, ABS($G10-J10)/20)</f>
+        <f t="shared" si="0"/>
         <v>43.291242201107281</v>
       </c>
       <c r="S10" s="3">
-        <f>(O10-$E10)/$L10</f>
+        <f t="shared" ref="S9:S23" si="5">(O10-$E10)/$L10</f>
         <v>23.685423223616503</v>
       </c>
       <c r="T10" s="3">
-        <f>(P10-O10)/$L10</f>
+        <f t="shared" ref="T9:T23" si="6">(P10-O10)/$L10</f>
         <v>37.106779029520261</v>
       </c>
       <c r="U10" s="3">
-        <f>(Q10-P10)/$L10</f>
+        <f t="shared" si="1"/>
         <v>37.106779029520858</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" ref="W10:W23" si="1">AVERAGE(S10:U10)</f>
+        <f t="shared" ref="W10:X23" si="7">AVERAGE(S10:U10)</f>
         <v>32.632993760885874</v>
       </c>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C11" s="22">
+      <c r="X10" s="5">
+        <f t="shared" ref="X10:X23" si="8">W10*3.6</f>
+        <v>117.47877753918915</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C11" s="19">
         <v>7</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G11" s="1">
@@ -977,43 +1134,47 @@
       <c r="L11" s="4">
         <v>1.0833333333333299</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="3">
-        <f>$E$9*POWER(10, ABS($G11-H11)/20)</f>
+        <f t="shared" si="3"/>
         <v>21.990912039886798</v>
       </c>
       <c r="P11" s="3">
-        <f>$E$9*POWER(10, ABS($G11-I11)/20)</f>
+        <f t="shared" si="4"/>
         <v>45.814400083097759</v>
       </c>
       <c r="Q11" s="3">
-        <f>$E$9*POWER(10, ABS($G11-J11)/20)</f>
+        <f t="shared" si="0"/>
         <v>69.637888126308155</v>
       </c>
       <c r="S11" s="3">
-        <f>(O11-$E11)/$L11</f>
+        <f t="shared" si="5"/>
         <v>17.991611113741715</v>
       </c>
       <c r="T11" s="3">
-        <f>(P11-O11)/$L11</f>
+        <f t="shared" si="6"/>
         <v>21.99091203988711</v>
       </c>
       <c r="U11" s="3">
-        <f>(Q11-P11)/$L11</f>
+        <f t="shared" si="1"/>
         <v>21.990912039886588</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.657811731171805</v>
       </c>
-    </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C12" s="22">
+      <c r="X11" s="5">
+        <f t="shared" si="8"/>
+        <v>74.368122232218496</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C12" s="19">
         <v>8</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G12" s="1">
@@ -1031,43 +1192,47 @@
       <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
       <c r="O12" s="3">
-        <f>$E$9*POWER(10, ABS($G12-H12)/20)</f>
+        <f t="shared" si="3"/>
         <v>47.89339428994009</v>
       </c>
       <c r="P12" s="3">
-        <f>$E$9*POWER(10, ABS($G12-I12)/20)</f>
+        <f t="shared" si="4"/>
         <v>100.14073351532869</v>
       </c>
       <c r="Q12" s="3">
-        <f>$E$9*POWER(10, ABS($G12-J12)/20)</f>
+        <f t="shared" si="0"/>
         <v>152.38807274071829</v>
       </c>
       <c r="S12" s="3">
-        <f>(O12-$E12)/$L12</f>
+        <f t="shared" si="5"/>
         <v>45.39339428994009</v>
       </c>
       <c r="T12" s="3">
-        <f>(P12-O12)/$L12</f>
+        <f t="shared" si="6"/>
         <v>52.2473392253886</v>
       </c>
       <c r="U12" s="3">
-        <f>(Q12-P12)/$L12</f>
+        <f t="shared" si="1"/>
         <v>52.247339225389595</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>49.962690913572764</v>
       </c>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C13" s="22">
+      <c r="X12" s="5">
+        <f t="shared" si="8"/>
+        <v>179.86568728886195</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C13" s="19">
         <v>21</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G13" s="1">
@@ -1085,41 +1250,45 @@
       <c r="L13" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="3">
-        <f>$E$9*POWER(10, ABS($G13-H13)/20)</f>
+        <f t="shared" si="3"/>
         <v>40.941065031837375</v>
       </c>
       <c r="P13" s="3">
-        <f>$E$9*POWER(10, ABS($G13-I13)/20)</f>
+        <f t="shared" si="4"/>
         <v>88.705640902314698</v>
       </c>
       <c r="Q13" s="3">
-        <f>$E$9*POWER(10, ABS($G13-J13)/20)</f>
+        <f t="shared" si="0"/>
         <v>136.47021677279196</v>
       </c>
       <c r="S13" s="3">
-        <f>(O13-$E13)/$L13</f>
+        <f t="shared" si="5"/>
         <v>65.898968626006962</v>
       </c>
       <c r="T13" s="3">
-        <f>(P13-O13)/$L13</f>
+        <f t="shared" si="6"/>
         <v>81.882130063675447</v>
       </c>
       <c r="U13" s="3">
-        <f>(Q13-P13)/$L13</f>
+        <f t="shared" si="1"/>
         <v>81.882130063675348</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>76.554409584452586</v>
       </c>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C14" s="22"/>
+      <c r="X13" s="5">
+        <f t="shared" si="8"/>
+        <v>275.59587450402933</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C14" s="19"/>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G14" s="1">
@@ -1131,43 +1300,47 @@
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
       <c r="O14" s="3">
-        <f>$E$9*POWER(10, ABS($G14-H14)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P14" s="3">
-        <f>$E$9*POWER(10, ABS($G14-I14)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q14" s="3">
-        <f>$E$9*POWER(10, ABS($G14-J14)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S14" s="3">
-        <f>(O14-$E14)/$L14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <f>(P14-O14)/$L14</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <f>(Q14-P14)/$L14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C15" s="22" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C15" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G15" s="1">
@@ -1185,41 +1358,45 @@
       <c r="L15" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="3">
-        <f>$E$9*POWER(10, ABS($G15-H15)/20)</f>
+        <f t="shared" si="3"/>
         <v>19.452119675175442</v>
       </c>
       <c r="P15" s="3">
-        <f>$E$9*POWER(10, ABS($G15-I15)/20)</f>
+        <f t="shared" si="4"/>
         <v>41.68311358966173</v>
       </c>
       <c r="Q15" s="3">
-        <f>$E$9*POWER(10, ABS($G15-J15)/20)</f>
+        <f t="shared" si="0"/>
         <v>63.914107504147736</v>
       </c>
       <c r="S15" s="3">
-        <f>(O15-$E15)/$L15</f>
+        <f t="shared" si="5"/>
         <v>25.42817951276319</v>
       </c>
       <c r="T15" s="3">
-        <f>(P15-O15)/$L15</f>
+        <f t="shared" si="6"/>
         <v>33.346490871729465</v>
       </c>
       <c r="U15" s="3">
-        <f>(Q15-P15)/$L15</f>
+        <f t="shared" si="1"/>
         <v>33.346490871729046</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>30.7070537520739</v>
       </c>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C16" s="22"/>
+      <c r="X15" s="5">
+        <f t="shared" si="8"/>
+        <v>110.54539350746604</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C16" s="19"/>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G16" s="1">
@@ -1231,41 +1408,45 @@
       <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="3">
-        <f>$E$9*POWER(10, ABS($G16-H16)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P16" s="3">
-        <f>$E$9*POWER(10, ABS($G16-I16)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q16" s="3">
-        <f>$E$9*POWER(10, ABS($G16-J16)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S16" s="3">
-        <f>(O16-$E16)/$L16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <f>(P16-O16)/$L16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" s="3">
-        <f>(Q16-P16)/$L16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C17" s="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C17" s="19"/>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G17" s="1">
@@ -1277,41 +1458,45 @@
       <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="3">
-        <f>$E$9*POWER(10, ABS($G17-H17)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P17" s="3">
-        <f>$E$9*POWER(10, ABS($G17-I17)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q17" s="3">
-        <f>$E$9*POWER(10, ABS($G17-J17)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S17" s="3">
-        <f>(O17-$E17)/$L17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <f>(P17-O17)/$L17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <f>(Q17-P17)/$L17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C18" s="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C18" s="19"/>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G18" s="1">
@@ -1323,41 +1508,45 @@
       <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="3">
-        <f>$E$9*POWER(10, ABS($G18-H18)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P18" s="3">
-        <f>$E$9*POWER(10, ABS($G18-I18)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q18" s="3">
-        <f>$E$9*POWER(10, ABS($G18-J18)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S18" s="3">
-        <f>(O18-$E18)/$L18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <f>(P18-O18)/$L18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <f>(Q18-P18)/$L18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C19" s="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C19" s="19"/>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G19" s="1">
@@ -1369,41 +1558,45 @@
       <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="3">
-        <f>$E$9*POWER(10, ABS($G19-H19)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P19" s="3">
-        <f>$E$9*POWER(10, ABS($G19-I19)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q19" s="3">
-        <f>$E$9*POWER(10, ABS($G19-J19)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S19" s="3">
-        <f>(O19-$E19)/$L19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" s="3">
-        <f>(P19-O19)/$L19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="3">
-        <f>(Q19-P19)/$L19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C20" s="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C20" s="19"/>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G20" s="1">
@@ -1415,41 +1608,45 @@
       <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="3">
-        <f>$E$9*POWER(10, ABS($G20-H20)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P20" s="3">
-        <f>$E$9*POWER(10, ABS($G20-I20)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q20" s="3">
-        <f>$E$9*POWER(10, ABS($G20-J20)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S20" s="3">
-        <f>(O20-$E20)/$L20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <f>(P20-O20)/$L20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <f>(Q20-P20)/$L20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C21" s="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C21" s="19"/>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G21" s="1">
@@ -1461,41 +1658,45 @@
       <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="3">
-        <f>$E$9*POWER(10, ABS($G21-H21)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P21" s="3">
-        <f>$E$9*POWER(10, ABS($G21-I21)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q21" s="3">
-        <f>$E$9*POWER(10, ABS($G21-J21)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S21" s="3">
-        <f>(O21-$E21)/$L21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <f>(P21-O21)/$L21</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <f>(Q21-P21)/$L21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C22" s="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C22" s="19"/>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="G22" s="1">
@@ -1507,39 +1708,43 @@
       <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="3">
-        <f>$E$9*POWER(10, ABS($G22-H22)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P22" s="3">
-        <f>$E$9*POWER(10, ABS($G22-I22)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q22" s="3">
-        <f>$E$9*POWER(10, ABS($G22-J22)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S22" s="3">
-        <f>(O22-$E22)/$L22</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <f>(P22-O22)/$L22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <f>(Q22-P22)/$L22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C23" s="22"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C23" s="19"/>
       <c r="E23" s="2">
         <f>E22</f>
         <v>2.5</v>
@@ -1553,38 +1758,42 @@
       <c r="L23" s="4">
         <v>1</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="3">
-        <f>$E$9*POWER(10, ABS($G23-H23)/20)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="P23" s="3">
-        <f>$E$9*POWER(10, ABS($G23-I23)/20)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="Q23" s="3">
-        <f>$E$9*POWER(10, ABS($G23-J23)/20)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="S23" s="3">
-        <f>(O23-$E23)/$L23</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <f>(P23-O23)/$L23</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <f>(Q23-P23)/$L23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.35">
       <c r="H26" t="s">
         <v>12</v>
       </c>
@@ -1595,24 +1804,62 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="H29" s="12" t="s">
+    <row r="28" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="3:24" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="H29" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="M29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="R29" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="27"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="28"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="28"/>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="H31" s="27"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="28"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="28"/>
+    </row>
+    <row r="32" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H29:J30"/>
+  <mergeCells count="5">
     <mergeCell ref="E6:L6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="O6:W6"/>
+    <mergeCell ref="H29:K32"/>
+    <mergeCell ref="M29:P32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Messungen/Fahrzeuge/AmplitudeTest.xlsx
+++ b/Messungen/Fahrzeuge/AmplitudeTest.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Levin\Schule\JugendForscht\Messungen\Fahrzeuge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F8324B-DC4F-4A03-B152-69E92EA05B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CE7D2-0BC4-43CA-B5BA-4907D3CBCC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="14280" windowWidth="29040" windowHeight="15840" xr2:uid="{E2736EEE-D214-48CD-A3C2-DAE0CDD1B064}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{E2736EEE-D214-48CD-A3C2-DAE0CDD1B064}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mit Durchschnittsberechnung" sheetId="1" r:id="rId1"/>
+    <sheet name="Aufgeteilte Messungen" sheetId="2" r:id="rId2"/>
+    <sheet name="Aus den Rohdaten" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>r1 [m]</t>
   </si>
@@ -105,13 +99,49 @@
   </si>
   <si>
     <t>v_avg [km/h]</t>
+  </si>
+  <si>
+    <t>Aufgeteilte Messungen'</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Geschwindigkeiten [km/h]</t>
+  </si>
+  <si>
+    <t>v_symm_avg</t>
+  </si>
+  <si>
+    <t>Geschw. [km/h]</t>
+  </si>
+  <si>
+    <t>Einzelne Punkte (ungenau)</t>
+  </si>
+  <si>
+    <t>raw_singles (avg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +216,38 @@
       <name val="Cambria Math"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -232,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -505,8 +567,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -517,8 +594,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="8"/>
@@ -546,9 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -559,6 +635,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,18 +652,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="40 % - Akzent5" xfId="7" builtinId="47"/>
     <cellStyle name="60 % - Akzent5" xfId="8" builtinId="48"/>
     <cellStyle name="Akzent5" xfId="6" builtinId="45"/>
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
     <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
     <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
+    <cellStyle name="Link" xfId="11" builtinId="8"/>
     <cellStyle name="Notiz" xfId="5" builtinId="10"/>
     <cellStyle name="Schlecht" xfId="9" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Überschrift 4" xfId="10" builtinId="19"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -888,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -896,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C4368C-E09C-4DF4-97FC-AC13266427FB}">
-  <dimension ref="C6:X33"/>
+  <dimension ref="C6:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:X23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1079,11 +1168,11 @@
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
       <c r="O10" s="3">
-        <f t="shared" ref="O9:O23" si="3">$E$9*POWER(10, ABS($G10-H10)/20)</f>
+        <f t="shared" ref="O10:O23" si="3">$E$9*POWER(10, ABS($G10-H10)/20)</f>
         <v>12.368926343173527</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" ref="P9:P23" si="4">$E$9*POWER(10, ABS($G10-I10)/20)</f>
+        <f t="shared" ref="P10:P23" si="4">$E$9*POWER(10, ABS($G10-I10)/20)</f>
         <v>27.830084272140279</v>
       </c>
       <c r="Q10" s="3">
@@ -1091,11 +1180,11 @@
         <v>43.291242201107281</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" ref="S9:S23" si="5">(O10-$E10)/$L10</f>
+        <f t="shared" ref="S10:S23" si="5">(O10-$E10)/$L10</f>
         <v>23.685423223616503</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" ref="T9:T23" si="6">(P10-O10)/$L10</f>
+        <f t="shared" ref="T10:T23" si="6">(P10-O10)/$L10</f>
         <v>37.106779029520261</v>
       </c>
       <c r="U10" s="3">
@@ -1103,7 +1192,7 @@
         <v>37.106779029520858</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" ref="W10:X23" si="7">AVERAGE(S10:U10)</f>
+        <f t="shared" ref="W10:W23" si="7">AVERAGE(S10:U10)</f>
         <v>32.632993760885874</v>
       </c>
       <c r="X10" s="5">
@@ -1806,40 +1895,40 @@
     </row>
     <row r="28" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="3:24" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="M29" s="24" t="s">
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="26"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="25"/>
       <c r="R29" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="27"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="28"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="28"/>
     </row>
     <row r="31" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="H31" s="27"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
       <c r="K31" s="28"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="28"/>
     </row>
     <row r="32" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1852,7 +1941,12 @@
       <c r="O32" s="30"/>
       <c r="P32" s="31"/>
     </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="5:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="5:5" ht="26" x14ac:dyDescent="0.6">
+      <c r="E36" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E6:L6"/>
@@ -1861,7 +1955,340 @@
     <mergeCell ref="H29:K32"/>
     <mergeCell ref="M29:P32"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E36" location="'Aufgeteilte Messungen'!A1" display="Aufgeteilte Messungen'" xr:uid="{76123523-FC14-4ADA-BB13-5EB50A550F6F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8854AC4E-BE91-45F3-96C3-1CBCC0547978}">
+  <dimension ref="C6:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="3:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>174</v>
+      </c>
+      <c r="G9" s="4">
+        <v>215</v>
+      </c>
+      <c r="H9" s="4">
+        <v>113</v>
+      </c>
+      <c r="I9" s="4">
+        <v>305</v>
+      </c>
+      <c r="J9" s="4">
+        <v>161</v>
+      </c>
+      <c r="L9" s="5">
+        <f>MEDIAN(G9:J9)</f>
+        <v>188</v>
+      </c>
+      <c r="M9" s="5">
+        <f>AVERAGE(G9:J9)</f>
+        <v>198.5</v>
+      </c>
+      <c r="O9">
+        <f>L9-E9</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>134</v>
+      </c>
+      <c r="G10" s="4">
+        <v>106</v>
+      </c>
+      <c r="H10" s="4">
+        <v>104</v>
+      </c>
+      <c r="I10" s="4">
+        <v>141</v>
+      </c>
+      <c r="J10" s="4">
+        <v>95</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ref="L10:L13" si="0">MEDIAN(G10:J10)</f>
+        <v>105</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:M13" si="1">AVERAGE(G10:J10)</f>
+        <v>111.5</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:O13" si="2">L10-E10</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>79</v>
+      </c>
+      <c r="G11" s="4">
+        <v>58</v>
+      </c>
+      <c r="H11" s="4">
+        <v>90</v>
+      </c>
+      <c r="I11" s="4">
+        <v>92</v>
+      </c>
+      <c r="J11" s="4">
+        <v>73</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="0"/>
+        <v>81.5</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>78.25</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>188</v>
+      </c>
+      <c r="G12" s="4">
+        <v>148</v>
+      </c>
+      <c r="H12" s="4">
+        <v>186</v>
+      </c>
+      <c r="I12" s="4">
+        <v>182</v>
+      </c>
+      <c r="J12" s="4">
+        <v>248</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>295</v>
+      </c>
+      <c r="G13" s="4">
+        <v>302</v>
+      </c>
+      <c r="H13" s="4">
+        <v>271</v>
+      </c>
+      <c r="I13" s="4">
+        <v>270</v>
+      </c>
+      <c r="J13" s="4">
+        <v>281</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O16" s="35">
+        <f>AVERAGE(O9:O13)</f>
+        <v>-7.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:J6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O9:O13 O16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092E3095-9431-436E-81D7-EBA18D05936C}">
+  <dimension ref="C1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>181</v>
+      </c>
+      <c r="F6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>276</v>
+      </c>
+      <c r="F7">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>